--- a/Proyectos/2015/12/P1401 - CCOM2, Analy Tepetate_MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1401 - CCOM2, Analy Tepetate_MO/Calidad/No_conformidades.xlsx
@@ -47,7 +47,7 @@
     <t>Marisol Ornelas</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>hablar en la próxima minuta sobre el proyecto</t>
@@ -324,8 +324,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -397,7 +397,9 @@
       <c r="D4" s="5" t="n">
         <v>42382</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -418,7 +420,9 @@
       <c r="D5" s="5" t="n">
         <v>42382</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
@@ -439,7 +443,9 @@
       <c r="D6" s="5" t="n">
         <v>42380</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -460,7 +466,9 @@
       <c r="D7" s="5" t="n">
         <v>42380</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
@@ -481,7 +489,9 @@
       <c r="D8" s="5" t="n">
         <v>42380</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
@@ -502,7 +512,9 @@
       <c r="D9" s="5" t="n">
         <v>42380</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="n">
+        <v>42383</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
